--- a/biology/Botanique/Côtes-de-montestruc/Côtes-de-montestruc.xlsx
+++ b/biology/Botanique/Côtes-de-montestruc/Côtes-de-montestruc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-de-montestruc</t>
+          <t>Côtes-de-montestruc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le côtes-de-montestruc, appelé vin de pays des côtes de Montestruc jusqu'en 2009, est un vin français d'indication géographique protégée (le nouveau nom des vins de pays) de zone produit dans la zone Ténarèze, autour de Montestruc-sur-Gers. Depuis 2009, ces vins ont été intégrés à l'IGP Côtes-de-gascogne.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-de-montestruc</t>
+          <t>Côtes-de-montestruc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignerons du Syndicat de défense des côtes du Montestruc doivent répondre à un cahier de production bien précis, chaque parcelle est identifiée et répertoriée.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-de-montestruc</t>
+          <t>Côtes-de-montestruc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Règles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Seulement des vins rouge, rosé et blanc.
 Seulement du vin provenant de la zone définie.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-de-montestruc</t>
+          <t>Côtes-de-montestruc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Zone de production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pour avoir droit à la dénomination « vin de pays des côtes de Montestruc », les vins doivent être issus de vendanges récoltées sur le territoire des communes suivantes du département. du Gers :
 Canton d'Auch-Nord-Ouest et Canton d'Auch-Nord-Est : Auch, Castin, Crastes, Duran, Mirepoix, Montaut-les-Créneaux, Nougaroulet, Preignan, Puycasquier, Roquelaure, Sainte-Christie, Tourrenquets et Leboulin.
